--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/128.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/128.xlsx
@@ -479,13 +479,13 @@
         <v>-0.116214296514211</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.279680094014187</v>
+        <v>-1.243165751308651</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07133115354532961</v>
+        <v>-0.09547304872850496</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1715678351304845</v>
+        <v>-0.171864224892939</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09054029721974943</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.379407218815615</v>
+        <v>-1.322463883222085</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1828218858152088</v>
+        <v>-0.1992532670302953</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1767393254684831</v>
+        <v>-0.1745142121779383</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06469699669029191</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.514404725349124</v>
+        <v>-1.438803435201871</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1780723493754828</v>
+        <v>-0.2121600921539282</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2013192350789311</v>
+        <v>-0.1799178501623914</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04178101819600297</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.676077310503535</v>
+        <v>-1.607214142295826</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1989729377968408</v>
+        <v>-0.2231294334609252</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1840570865001175</v>
+        <v>-0.1670387659524857</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02068310988556292</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.774646617168872</v>
+        <v>-1.72648839093834</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2133179102900188</v>
+        <v>-0.2301362042491961</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1887657415932981</v>
+        <v>-0.1849009942966628</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.001198203644543585</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.627551152154094</v>
+        <v>-1.575223028575926</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.115366203967136</v>
+        <v>-0.1511154814730355</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1819969586438454</v>
+        <v>-0.1658283860851224</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.01648449446005898</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.422950233030785</v>
+        <v>-1.393150651495338</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05364559102015255</v>
+        <v>-0.07528350372741946</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1684155913022126</v>
+        <v>-0.1528193575951259</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.03135774558575537</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.222490010293293</v>
+        <v>-1.157830320539311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07600959954872173</v>
+        <v>0.04222846686936717</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1620600019624871</v>
+        <v>-0.1491809177525814</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0433131873422303</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8731822648319325</v>
+        <v>-0.7870000061698648</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1584322343766996</v>
+        <v>0.134598409340706</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1431217181753103</v>
+        <v>-0.1350184512707671</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0544317463522214</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5233167809998446</v>
+        <v>-0.4255519608325981</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1430929691336128</v>
+        <v>0.1375185055225234</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07825324154432775</v>
+        <v>-0.07014559449551175</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07004877366343934</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02097308676191833</v>
+        <v>0.09466025386198945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11622370411662</v>
+        <v>0.1293801974637983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04206056133891267</v>
+        <v>0.04291760956827607</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09562213821247019</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5102162214002415</v>
+        <v>0.6053675554847614</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05794588456799931</v>
+        <v>0.06270564134436167</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1847948627061471</v>
+        <v>0.1871411599882374</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1348389799184815</v>
       </c>
       <c r="E14" t="n">
-        <v>1.092584143372903</v>
+        <v>1.173232819770427</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08892181294459761</v>
+        <v>-0.04476557853124584</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2870668513300287</v>
+        <v>0.2955088493916628</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1891364858375414</v>
       </c>
       <c r="E15" t="n">
-        <v>1.727338590847369</v>
+        <v>1.817538901855618</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.237509447108285</v>
+        <v>-0.1903382133872067</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5113389983821502</v>
+        <v>0.5033364747958797</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2602285876983794</v>
       </c>
       <c r="E16" t="n">
-        <v>2.396135519609462</v>
+        <v>2.491432858503073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3847640573649727</v>
+        <v>-0.3576232234030709</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6388741991230251</v>
+        <v>0.6402130632223885</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3482605860555752</v>
       </c>
       <c r="E17" t="n">
-        <v>3.060654507465193</v>
+        <v>3.135863044675991</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5206609535224817</v>
+        <v>-0.4934135360499435</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7840686815234407</v>
+        <v>0.7934567907479836</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4529749866687261</v>
       </c>
       <c r="E18" t="n">
-        <v>3.656015397398851</v>
+        <v>3.74038427633201</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6680265274340785</v>
+        <v>-0.6264531180935442</v>
       </c>
       <c r="G18" t="n">
-        <v>0.957012837939667</v>
+        <v>0.9580538522284849</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5727105576559881</v>
       </c>
       <c r="E19" t="n">
-        <v>4.155468648336899</v>
+        <v>4.254118257647236</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8456194769717581</v>
+        <v>-0.7941834427771355</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070552017681091</v>
+        <v>1.083943578770906</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7041753096123355</v>
       </c>
       <c r="E20" t="n">
-        <v>4.62243874934841</v>
+        <v>4.743739544741104</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.021527531012529</v>
+        <v>-0.9728101063631784</v>
       </c>
       <c r="G20" t="n">
-        <v>1.251612581434679</v>
+        <v>1.245073026035499</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.839445957543736</v>
       </c>
       <c r="E21" t="n">
-        <v>5.126914565719184</v>
+        <v>5.233280529189973</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.227775384382383</v>
+        <v>-1.165635737633308</v>
       </c>
       <c r="G21" t="n">
-        <v>1.407352991195728</v>
+        <v>1.410937409258909</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9663933147470616</v>
       </c>
       <c r="E22" t="n">
-        <v>5.517559192730351</v>
+        <v>5.621006520067414</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.409782059298879</v>
+        <v>-1.349390090114623</v>
       </c>
       <c r="G22" t="n">
-        <v>1.528443539663332</v>
+        <v>1.528069767352059</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.073499605920837</v>
       </c>
       <c r="E23" t="n">
-        <v>5.763172862727285</v>
+        <v>5.882263145310344</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.616446026374642</v>
+        <v>-1.544948931410934</v>
       </c>
       <c r="G23" t="n">
-        <v>1.673981133365111</v>
+        <v>1.677451667677201</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.153858439924221</v>
       </c>
       <c r="E24" t="n">
-        <v>6.04008704369712</v>
+        <v>6.173047783143812</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.760507511456512</v>
+        <v>-1.690226636552531</v>
       </c>
       <c r="G24" t="n">
-        <v>1.832759903203341</v>
+        <v>1.822451963681526</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.207031251901092</v>
       </c>
       <c r="E25" t="n">
-        <v>6.15154711495709</v>
+        <v>6.316878580627319</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.940696426499828</v>
+        <v>-1.851728396080306</v>
       </c>
       <c r="G25" t="n">
-        <v>1.850655712653609</v>
+        <v>1.869466972256876</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.23513419336289</v>
       </c>
       <c r="E26" t="n">
-        <v>6.175529864898357</v>
+        <v>6.389396249206572</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.982658208632544</v>
+        <v>-1.911283757708472</v>
       </c>
       <c r="G26" t="n">
-        <v>1.844031474465156</v>
+        <v>1.880207086013601</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.240949921575044</v>
       </c>
       <c r="E27" t="n">
-        <v>6.169511546667631</v>
+        <v>6.411299890666384</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.040237395169664</v>
+        <v>-1.986406152081906</v>
       </c>
       <c r="G27" t="n">
-        <v>1.938573968495767</v>
+        <v>1.975448943079757</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.226002274991915</v>
       </c>
       <c r="E28" t="n">
-        <v>6.248948383149701</v>
+        <v>6.503681513522451</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.117757918532416</v>
+        <v>-2.066955545209249</v>
       </c>
       <c r="G28" t="n">
-        <v>1.96954158850394</v>
+        <v>2.018807991235473</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.192020058612505</v>
       </c>
       <c r="E29" t="n">
-        <v>6.140291604224275</v>
+        <v>6.405868511768204</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.18111013522099</v>
+        <v>-2.132266416411776</v>
       </c>
       <c r="G29" t="n">
-        <v>1.977617114494757</v>
+        <v>2.028231141614198</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.141919416358746</v>
       </c>
       <c r="E30" t="n">
-        <v>6.099426318207832</v>
+        <v>6.367060433511851</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.294602593423505</v>
+        <v>-2.232234449148204</v>
       </c>
       <c r="G30" t="n">
-        <v>2.004479079271295</v>
+        <v>2.052755569397191</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.079432650411917</v>
       </c>
       <c r="E31" t="n">
-        <v>5.975139724469229</v>
+        <v>6.269672305752058</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.363685498868896</v>
+        <v>-2.268853185292239</v>
       </c>
       <c r="G31" t="n">
-        <v>1.931454774004496</v>
+        <v>1.995556725387752</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.0083793786093</v>
       </c>
       <c r="E32" t="n">
-        <v>5.753002167726016</v>
+        <v>6.068626603730112</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.382191608421164</v>
+        <v>-2.297224839794777</v>
       </c>
       <c r="G32" t="n">
-        <v>1.910148292213866</v>
+        <v>1.966452126743578</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9319792402605981</v>
       </c>
       <c r="E33" t="n">
-        <v>5.570899129635519</v>
+        <v>5.879873046585527</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.434640185966831</v>
+        <v>-2.336356318703267</v>
       </c>
       <c r="G33" t="n">
-        <v>1.903875925615322</v>
+        <v>1.943596533928493</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8528593750214194</v>
       </c>
       <c r="E34" t="n">
-        <v>5.320829392865131</v>
+        <v>5.627938828403049</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.524552137477126</v>
+        <v>-2.427247962482561</v>
       </c>
       <c r="G34" t="n">
-        <v>1.817258572622163</v>
+        <v>1.863594658835242</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7731459682257045</v>
       </c>
       <c r="E35" t="n">
-        <v>5.122204450577912</v>
+        <v>5.426135361421921</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.524870427960944</v>
+        <v>-2.431483561994287</v>
       </c>
       <c r="G35" t="n">
-        <v>1.770493232270358</v>
+        <v>1.805132873227167</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6951511624205233</v>
       </c>
       <c r="E36" t="n">
-        <v>4.92747929674151</v>
+        <v>5.245112758918697</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.490730123451225</v>
+        <v>-2.410355936094792</v>
       </c>
       <c r="G36" t="n">
-        <v>1.67879929206511</v>
+        <v>1.714859559814373</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6201741723215636</v>
       </c>
       <c r="E37" t="n">
-        <v>4.5912360615976</v>
+        <v>4.884142149307158</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.426985153826197</v>
+        <v>-2.345553891651946</v>
       </c>
       <c r="G37" t="n">
-        <v>1.589147959139043</v>
+        <v>1.621685130844943</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5496692386063583</v>
       </c>
       <c r="E38" t="n">
-        <v>4.413155455997557</v>
+        <v>4.680541363126122</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.29567937889055</v>
+        <v>-2.23302360514134</v>
       </c>
       <c r="G38" t="n">
-        <v>1.493473927837977</v>
+        <v>1.540557558673601</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4840035089169148</v>
       </c>
       <c r="E39" t="n">
-        <v>4.071577205129467</v>
+        <v>4.345177076932939</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.266174727069468</v>
+        <v>-2.208709424283438</v>
       </c>
       <c r="G39" t="n">
-        <v>1.388299363609369</v>
+        <v>1.425013732903359</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.425005114359049</v>
       </c>
       <c r="E40" t="n">
-        <v>3.729350692909013</v>
+        <v>4.023826332316298</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.183308967645899</v>
+        <v>-2.150984232937226</v>
       </c>
       <c r="G40" t="n">
-        <v>1.280127320650126</v>
+        <v>1.327181750523931</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3731452118254022</v>
       </c>
       <c r="E41" t="n">
-        <v>3.462948858193721</v>
+        <v>3.736596911584193</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.084931657304516</v>
+        <v>-2.05383117292007</v>
       </c>
       <c r="G41" t="n">
-        <v>1.158200164626431</v>
+        <v>1.21133277470269</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3279468993076943</v>
       </c>
       <c r="E42" t="n">
-        <v>3.1345446212499</v>
+        <v>3.439389522198819</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.975775541932</v>
+        <v>-1.949992552694643</v>
       </c>
       <c r="G42" t="n">
-        <v>1.060374022439367</v>
+        <v>1.112776608470171</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.288342976469847</v>
       </c>
       <c r="E43" t="n">
-        <v>2.919273670678231</v>
+        <v>3.194099982878066</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.948242685057689</v>
+        <v>-1.912304331324017</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9477926342455786</v>
+        <v>1.011611336299198</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2529199712575216</v>
       </c>
       <c r="E44" t="n">
-        <v>2.662527133988118</v>
+        <v>2.932767435134409</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.909530969975336</v>
+        <v>-1.866462471389711</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8258552578852476</v>
+        <v>0.8870341929905039</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2210921564305827</v>
       </c>
       <c r="E45" t="n">
-        <v>2.402832760202461</v>
+        <v>2.666558326767117</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.768635599178601</v>
+        <v>-1.73596848319261</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7241380875359114</v>
+        <v>0.7734059503155345</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1918974106105018</v>
       </c>
       <c r="E46" t="n">
-        <v>2.197595260111516</v>
+        <v>2.45440749896572</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.698071474944984</v>
+        <v>-1.67439825519899</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7062408180375525</v>
+        <v>0.7475703993469051</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1644254527863355</v>
       </c>
       <c r="E47" t="n">
-        <v>1.888581921863053</v>
+        <v>2.144504991429894</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.656937540079813</v>
+        <v>-1.622781175041095</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5925351928137649</v>
+        <v>0.6315082565043908</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1378203785959592</v>
       </c>
       <c r="E48" t="n">
-        <v>1.744778865293274</v>
+        <v>1.983629592533119</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.582956903313469</v>
+        <v>-1.566324035461837</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5218776255023293</v>
+        <v>0.5630232407522273</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1124185342213736</v>
       </c>
       <c r="E49" t="n">
-        <v>1.55329647826678</v>
+        <v>1.791725251608352</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.569388676404655</v>
+        <v>-1.537787395525027</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4449681322656227</v>
+        <v>0.4917480730983373</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08856841505396115</v>
       </c>
       <c r="E50" t="n">
-        <v>1.44620779099099</v>
+        <v>1.688612275284107</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.447644026392324</v>
+        <v>-1.430741049643874</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3933583523481819</v>
+        <v>0.4325606435890805</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0666630222210825</v>
       </c>
       <c r="E51" t="n">
-        <v>1.304879515935301</v>
+        <v>1.528593924616695</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.390118131610521</v>
+        <v>-1.371572600759799</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3252806900133821</v>
+        <v>0.3618110932479177</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04741772040892233</v>
       </c>
       <c r="E52" t="n">
-        <v>1.216088151334779</v>
+        <v>1.427996611153086</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.329882387571992</v>
+        <v>-1.318422470106449</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2601216638123087</v>
+        <v>0.2903972210253914</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.031441887826598</v>
       </c>
       <c r="E53" t="n">
-        <v>0.992674512560112</v>
+        <v>1.216740792831415</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.279798357909551</v>
+        <v>-1.267671198466463</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2231985076413186</v>
+        <v>0.2472820009008576</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01881213323477721</v>
       </c>
       <c r="E54" t="n">
-        <v>1.069020427233728</v>
+        <v>1.26051595469304</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.272407594473371</v>
+        <v>-1.257539924763647</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1316710129184341</v>
+        <v>0.1702586239130601</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.009264450253820545</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8808275285560511</v>
+        <v>1.088309122562723</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.247458292695923</v>
+        <v>-1.225573631861292</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08529988555117378</v>
+        <v>0.1190401368839829</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.002023202479303381</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8622265158778742</v>
+        <v>1.07432624199609</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.214207157473568</v>
+        <v>-1.188884083384848</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04961047001700155</v>
+        <v>0.08094456209599313</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.003607565061909458</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7664532013066272</v>
+        <v>0.9767264072631162</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.184911292529485</v>
+        <v>-1.161693607787855</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02004887632037312</v>
+        <v>0.05505936949227281</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.008092398134768449</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7159618182268226</v>
+        <v>0.9152642228282236</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.174242721129215</v>
+        <v>-1.141886595386588</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07633911849714645</v>
+        <v>-0.03905533044770192</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.01177573907677865</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5821469506469494</v>
+        <v>0.8083463611790705</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.111029939033323</v>
+        <v>-1.06807678424688</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1353017006004033</v>
+        <v>-0.106251123735593</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.01495214485963759</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6024299387258532</v>
+        <v>0.8164291874103411</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.061373703461518</v>
+        <v>-1.017686144485348</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1605459320922147</v>
+        <v>-0.1279678790397689</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.01765849691939738</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4692399717288889</v>
+        <v>0.6944991112904647</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.062943255159245</v>
+        <v>-1.012708840543441</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2100882839129287</v>
+        <v>-0.169640571650485</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01994219847892493</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3762217679051866</v>
+        <v>0.624755534083938</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.052810521408339</v>
+        <v>-1.012378869674895</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.274769874388275</v>
+        <v>-0.2399521075643752</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.02170203350621231</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3240761503383824</v>
+        <v>0.5681830507054987</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.138527024729407</v>
+        <v>-1.077647399482787</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3080414502839024</v>
+        <v>-0.2656518740605502</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.02275339027002028</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2428419946564042</v>
+        <v>0.494968939186882</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.082605722799513</v>
+        <v>-1.038709376946343</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3641773792831601</v>
+        <v>-0.3186253388948996</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.02290225777649624</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1684817453864242</v>
+        <v>0.4309794115066264</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.023600799301619</v>
+        <v>-0.9876982167461744</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3918058693074254</v>
+        <v>-0.3507522370872546</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.02216330710041677</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1054251884362593</v>
+        <v>0.3765488186775501</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.08228013207524</v>
+        <v>-1.026418692117073</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4146950432286011</v>
+        <v>-0.372125881090067</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02043394332613172</v>
       </c>
       <c r="E67" t="n">
-        <v>0.140514524205068</v>
+        <v>0.3955951460234541</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.067533646357062</v>
+        <v>-1.022275075635074</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.43569345487205</v>
+        <v>-0.3928235228267887</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01747014114694999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05336133356254599</v>
+        <v>0.3065906144016598</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.115532727345686</v>
+        <v>-1.055172879219429</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.451891228392591</v>
+        <v>-0.4031168618676951</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.01304222657858597</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01247414682473879</v>
+        <v>0.2431836459096768</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.151641176681949</v>
+        <v>-1.091300309180874</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4645148041865877</v>
+        <v>-0.4187262360076</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.006797887607231352</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.04718195812169974</v>
+        <v>0.1932850423547811</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.232043104952109</v>
+        <v>-1.171189760571125</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5026571005134866</v>
+        <v>-0.452324862675591</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.001587022431190719</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1027703690868666</v>
+        <v>0.1333004265878882</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.385129147283886</v>
+        <v>-1.301172001912363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5828882031570104</v>
+        <v>-0.5201543168349364</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.01235913772328586</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.149491907995945</v>
+        <v>0.07650601589963069</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.424734411797875</v>
+        <v>-1.337008882303717</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5635746870104702</v>
+        <v>-0.5119021250251204</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.02572176806957109</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1503022346863993</v>
+        <v>0.06391164106745226</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.436331573783963</v>
+        <v>-1.342409600191988</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.590681939866281</v>
+        <v>-0.5379435427745679</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.04186820260243778</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1138521340968636</v>
+        <v>0.1151739295392567</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.479534396793951</v>
+        <v>-1.385482478921886</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5979953207536427</v>
+        <v>-0.5471316254106564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.06072255927183287</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.05549547195133386</v>
+        <v>0.1408313546407952</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.544126924335752</v>
+        <v>-1.452341001100777</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5818457288201017</v>
+        <v>-0.5133431924908473</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.08217569608243375</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.009994533246255174</v>
+        <v>0.1864052957504194</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.458347638946775</v>
+        <v>-1.379989778003887</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5852038394291916</v>
+        <v>-0.5164107535298464</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1061731330323152</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1201015918460735</v>
+        <v>0.3135185425930216</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.454317906215867</v>
+        <v>-1.371727365857435</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4869280024301271</v>
+        <v>-0.4390398850964127</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1324524039866985</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2691652016873972</v>
+        <v>0.4205765688589019</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.405966953637335</v>
+        <v>-1.325522683972538</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5093061595194848</v>
+        <v>-0.45937689495468</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1605024134001495</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3549255064511923</v>
+        <v>0.4991359164383354</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.363612418568164</v>
+        <v>-1.293474628377092</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4523000418580455</v>
+        <v>-0.4073291006099667</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1895009829840185</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5011522428518803</v>
+        <v>0.6197490291802121</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.377771964953797</v>
+        <v>-1.306032502006998</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.41515933852151</v>
+        <v>-0.3725872562867942</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2183284049657582</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5351801236585985</v>
+        <v>0.6704900804835621</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.318066218372268</v>
+        <v>-1.258830607276011</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3245852552019889</v>
+        <v>-0.286891193638999</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2462271960644647</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6581424537787472</v>
+        <v>0.7743739621998069</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.249045364970741</v>
+        <v>-1.190424434120756</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2964472083939965</v>
+        <v>-0.2666578471951863</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2719496126835493</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8078937462708888</v>
+        <v>0.9049913244605901</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.217128713703477</v>
+        <v>-1.152616488806676</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2346827940042857</v>
+        <v>-0.204726987323112</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2936588253734498</v>
       </c>
       <c r="E84" t="n">
-        <v>1.035252434987191</v>
+        <v>1.102521230679628</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.162190024138764</v>
+        <v>-1.086871983321148</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2040057235662031</v>
+        <v>-0.1732498105312113</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3090336237558999</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122499068707532</v>
+        <v>1.183177207317606</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.028395597232163</v>
+        <v>-0.9773231150121773</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1525069073036714</v>
+        <v>-0.1205566749303164</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3157548911171966</v>
       </c>
       <c r="E86" t="n">
-        <v>1.330863991809203</v>
+        <v>1.364611543382467</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9477834220369125</v>
+        <v>-0.8927293886730181</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07331243880469272</v>
+        <v>-0.05045684598960794</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3107690101968744</v>
       </c>
       <c r="E87" t="n">
-        <v>1.445124435307536</v>
+        <v>1.461608378253895</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.861277032698663</v>
+        <v>-0.8005959739924066</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01925269819070723</v>
+        <v>-0.004620096223620254</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2918542967309237</v>
       </c>
       <c r="E88" t="n">
-        <v>1.56582953107914</v>
+        <v>1.551699185655325</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.731633522514516</v>
+        <v>-0.6691478443678963</v>
       </c>
       <c r="G88" t="n">
-        <v>0.006838361193831214</v>
+        <v>0.02941800491973424</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.256925532986406</v>
       </c>
       <c r="E89" t="n">
-        <v>1.678831413123109</v>
+        <v>1.633729067546849</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6372545538700868</v>
+        <v>-0.5662786960748331</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07182802181635922</v>
+        <v>0.07914870294417543</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2056482331337637</v>
       </c>
       <c r="E90" t="n">
-        <v>1.724259349423643</v>
+        <v>1.670404015542384</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5461183520355658</v>
+        <v>-0.4674261400798596</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07106587671290487</v>
+        <v>0.08885364260444556</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1392764965929425</v>
       </c>
       <c r="E91" t="n">
-        <v>1.727169225268824</v>
+        <v>1.67283937575802</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3627129510479786</v>
+        <v>-0.2930190154765428</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1121399496063484</v>
+        <v>0.1171756554718925</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06094282922469271</v>
       </c>
       <c r="E92" t="n">
-        <v>1.717951941670917</v>
+        <v>1.673886230239202</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2209539618054712</v>
+        <v>-0.1470565477803093</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1290312459700711</v>
+        <v>0.1382193286061596</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02214305359141262</v>
       </c>
       <c r="E93" t="n">
-        <v>1.737935619891185</v>
+        <v>1.687277791329016</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.04481230007015492</v>
+        <v>0.01411086073464744</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1124246589840756</v>
+        <v>0.1206403495916188</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1031303881011612</v>
       </c>
       <c r="E94" t="n">
-        <v>1.688644396342107</v>
+        <v>1.632854498740395</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04586982680809346</v>
+        <v>0.1174778854267106</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0479752161551838</v>
+        <v>0.05471333809472745</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1742097652933595</v>
       </c>
       <c r="E95" t="n">
-        <v>1.624403740390215</v>
+        <v>1.561290241564505</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1734064875970592</v>
+        <v>0.2165158675292295</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02519262574464447</v>
+        <v>0.02053069219037299</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2296860109606737</v>
       </c>
       <c r="E96" t="n">
-        <v>1.514066446112154</v>
+        <v>1.447402110329354</v>
       </c>
       <c r="F96" t="n">
-        <v>0.212525556096776</v>
+        <v>0.2642054183225803</v>
       </c>
       <c r="G96" t="n">
-        <v>0.006387206333740426</v>
+        <v>-0.005247916902710995</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2674097655090252</v>
       </c>
       <c r="E97" t="n">
-        <v>1.362344088697286</v>
+        <v>1.309027512561572</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2845774693350294</v>
+        <v>0.3239651866834733</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03862607630897476</v>
+        <v>-0.03580818349352097</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.288538568866693</v>
       </c>
       <c r="E98" t="n">
-        <v>1.258431006019222</v>
+        <v>1.19828724501042</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3267670189699271</v>
+        <v>0.3448701552491041</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.03969483151151992</v>
+        <v>-0.04861280525079026</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2971130979660702</v>
       </c>
       <c r="E99" t="n">
-        <v>1.086705989758905</v>
+        <v>1.047321192506643</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3318202454125621</v>
+        <v>0.3485947379290122</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09562927387423217</v>
+        <v>-0.09700171907968635</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2977416718237805</v>
       </c>
       <c r="E100" t="n">
-        <v>1.00640918495129</v>
+        <v>0.9568171914954852</v>
       </c>
       <c r="F100" t="n">
-        <v>0.304269137937115</v>
+        <v>0.3098640422214771</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1497780774217631</v>
+        <v>-0.1360711459443122</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2956624390582059</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8807589062957784</v>
+        <v>0.8328503482887912</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3442540149547406</v>
+        <v>0.3428932501340137</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08883713015532491</v>
+        <v>-0.09555335137350493</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.296514357259778</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7344547873462722</v>
+        <v>0.695950399092828</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2773502312850313</v>
+        <v>0.281945002627121</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1989597973640226</v>
+        <v>-0.1924173218686607</v>
       </c>
     </row>
   </sheetData>
